--- a/GuideFinder-Mac/E_coli_DH5alpha/Pasteur_ftsz_predicted_guides.xlsx
+++ b/GuideFinder-Mac/E_coli_DH5alpha/Pasteur_ftsz_predicted_guides.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mellos/Documents/GitHub/Guide-Finder/GuideFinder-Mac/E_coli_DH5alpha/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8687041A-B9B0-0B46-A7AC-E56E1CDBAF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7DA146-37F0-2445-B9A4-5F148FBA2F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35660" yWindow="-2380" windowWidth="15960" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="500" windowWidth="15960" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - CRISPR Pasteur - brow" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -172,6 +185,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -326,10 +340,10 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,19 +352,19 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,7 +1536,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
